--- a/Data2Add.xlsx
+++ b/Data2Add.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\emree\Desktop\CO3\Datasets\DataSet Added\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5193D893-A709-4F29-9D92-B16355949042}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{005527D4-4014-4172-92D7-4F356B22A4ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" activeTab="1" xr2:uid="{4816651E-E4CB-4EE5-A76C-212777417412}"/>
   </bookViews>
@@ -1207,16 +1207,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D486B6C-86C8-4036-9F51-14A866183642}">
-  <dimension ref="A1:L6"/>
+  <dimension ref="A1:L7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O1" sqref="O1:AT1048576"/>
+      <selection activeCell="M15" sqref="M15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="14" max="14" width="5.28515625" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -1294,157 +1291,160 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B3" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="C3" s="3">
+        <v>0.12</v>
+      </c>
+      <c r="D3" s="3">
+        <v>0.17</v>
+      </c>
+      <c r="E3" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="F3" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="G3" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="H3" s="3">
+        <v>0.16</v>
+      </c>
+      <c r="I3" s="3">
+        <v>0.18</v>
+      </c>
+      <c r="J3" s="3">
+        <v>0.33</v>
+      </c>
+      <c r="K3" s="3">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="L3" s="3">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B3" s="5">
+      <c r="B4" s="3">
         <v>0.33</v>
       </c>
-      <c r="C3" s="5">
+      <c r="C4" s="3">
         <v>0.31</v>
       </c>
-      <c r="D3" s="5">
+      <c r="D4" s="3">
         <v>0.34</v>
       </c>
-      <c r="E3" s="5">
+      <c r="E4" s="3">
         <v>0.3</v>
       </c>
-      <c r="F3" s="5">
+      <c r="F4" s="3">
         <v>0.26</v>
       </c>
-      <c r="G3" s="5">
+      <c r="G4" s="3">
         <v>0.52</v>
       </c>
-      <c r="H3" s="5">
+      <c r="H4" s="3">
         <v>0.28999999999999998</v>
       </c>
-      <c r="I3" s="5">
+      <c r="I4" s="3">
         <v>0.3</v>
       </c>
-      <c r="J3" s="5">
+      <c r="J4" s="3">
         <v>0.21</v>
       </c>
-      <c r="K3" s="5">
+      <c r="K4" s="3">
         <v>0.28000000000000003</v>
       </c>
-      <c r="L3" s="5">
+      <c r="L4" s="3">
         <v>0.3</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B4" s="3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B5" s="3">
         <v>0.2</v>
       </c>
-      <c r="C4" s="3">
-        <v>0.12</v>
-      </c>
-      <c r="D4" s="3">
+      <c r="C5" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="D5" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="E5" s="3">
+        <v>0.26</v>
+      </c>
+      <c r="F5" s="3">
         <v>0.17</v>
       </c>
-      <c r="E4" s="3">
+      <c r="G5" s="3">
+        <v>0.16</v>
+      </c>
+      <c r="H5" s="3">
+        <v>0.25</v>
+      </c>
+      <c r="I5" s="3">
+        <v>0.16</v>
+      </c>
+      <c r="J5" s="3">
         <v>0.2</v>
       </c>
-      <c r="F4" s="3">
-        <v>0.2</v>
-      </c>
-      <c r="G4" s="3">
-        <v>0.2</v>
-      </c>
-      <c r="H4" s="3">
-        <v>0.16</v>
-      </c>
-      <c r="I4" s="3">
-        <v>0.18</v>
-      </c>
-      <c r="J4" s="3">
-        <v>0.33</v>
-      </c>
-      <c r="K4" s="3">
-        <v>0.28999999999999998</v>
-      </c>
-      <c r="L4" s="3">
+      <c r="K5" s="3">
+        <v>0.13</v>
+      </c>
+      <c r="L5" s="3">
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B6" s="3">
+        <v>0.08</v>
+      </c>
+      <c r="C6" s="3">
+        <v>0.11</v>
+      </c>
+      <c r="D6" s="3">
+        <v>0.19</v>
+      </c>
+      <c r="E6" s="3">
+        <v>0.09</v>
+      </c>
+      <c r="F6" s="3">
+        <v>0.11</v>
+      </c>
+      <c r="G6" s="3">
+        <v>0.02</v>
+      </c>
+      <c r="H6" s="3">
         <v>0.15</v>
       </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="B5" s="5">
-        <v>0.2</v>
-      </c>
-      <c r="C5" s="5">
-        <v>0.2</v>
-      </c>
-      <c r="D5" s="5">
-        <v>0.2</v>
-      </c>
-      <c r="E5" s="5">
-        <v>0.26</v>
-      </c>
-      <c r="F5" s="5">
-        <v>0.17</v>
-      </c>
-      <c r="G5" s="5">
-        <v>0.16</v>
-      </c>
-      <c r="H5" s="5">
-        <v>0.25</v>
-      </c>
-      <c r="I5" s="5">
-        <v>0.16</v>
-      </c>
-      <c r="J5" s="5">
-        <v>0.2</v>
-      </c>
-      <c r="K5" s="5">
-        <v>0.13</v>
-      </c>
-      <c r="L5" s="5">
-        <v>0.22</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="B6" s="5">
+      <c r="I6" s="3">
         <v>0.08</v>
       </c>
-      <c r="C6" s="5">
-        <v>0.11</v>
-      </c>
-      <c r="D6" s="5">
-        <v>0.19</v>
-      </c>
-      <c r="E6" s="5">
-        <v>0.09</v>
-      </c>
-      <c r="F6" s="5">
-        <v>0.11</v>
-      </c>
-      <c r="G6" s="5">
-        <v>0.02</v>
-      </c>
-      <c r="H6" s="5">
-        <v>0.15</v>
-      </c>
-      <c r="I6" s="5">
-        <v>0.08</v>
-      </c>
-      <c r="J6" s="5">
+      <c r="J6" s="3">
         <v>0.05</v>
       </c>
-      <c r="K6" s="5">
+      <c r="K6" s="3">
         <v>0.05</v>
       </c>
-      <c r="L6" s="5">
+      <c r="L6" s="3">
         <v>0.21</v>
       </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B7" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
